--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -91,12 +91,6 @@
 перевозки (руб.)</t>
   </si>
   <si>
-    <t>ОБОРУДОВАНИЕ</t>
-  </si>
-  <si>
-    <t>300-00</t>
-  </si>
-  <si>
     <t>скидка к тарифу (0%)</t>
   </si>
   <si>
@@ -193,7 +187,22 @@
     <t>когда выдан___________________________</t>
   </si>
   <si>
-    <t>Экспедиторская расписка №СП00-81553 от [created_at;frm=dd.mm.yyyy hh:MM:ss]</t>
+    <t>Экспедиторская расписка №[number] от 24.04.2019 10:45:53</t>
+  </si>
+  <si>
+    <t>[items.name;block=tbs:row]</t>
+  </si>
+  <si>
+    <t>[items.quantity]</t>
+  </si>
+  <si>
+    <t>[items.weight]</t>
+  </si>
+  <si>
+    <t>[items.volume]</t>
+  </si>
+  <si>
+    <t>[items.price;ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1743,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1919,22 +1928,22 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
-        <v>27</v>
-      </c>
-      <c r="F16" s="59">
-        <v>0.1</v>
+      <c r="D16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1953,7 +1962,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
@@ -1961,7 +1970,7 @@
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
@@ -1973,7 +1982,7 @@
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
@@ -1982,12 +1991,12 @@
       <c r="F20" s="63"/>
       <c r="G20" s="63"/>
       <c r="H20" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -1999,7 +2008,7 @@
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -2008,12 +2017,12 @@
       <c r="F22" s="63"/>
       <c r="G22" s="63"/>
       <c r="H22" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -2026,17 +2035,17 @@
     <row r="24" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2061,7 +2070,7 @@
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -2073,7 +2082,7 @@
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="70"/>
       <c r="C28" s="71"/>
@@ -2085,7 +2094,7 @@
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
@@ -2097,13 +2106,13 @@
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
       <c r="E30" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2111,7 +2120,7 @@
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
@@ -2125,21 +2134,21 @@
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
       <c r="E32" s="74"/>
       <c r="F32" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="75"/>
       <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" s="26" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
@@ -2149,7 +2158,7 @@
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -2161,15 +2170,15 @@
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="78"/>
       <c r="C35" s="79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="79"/>
       <c r="E35" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35" s="82"/>
       <c r="G35" s="82"/>
@@ -2189,15 +2198,15 @@
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="78"/>
       <c r="C37" s="86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="86"/>
       <c r="E37" s="85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F37" s="85"/>
       <c r="G37" s="85"/>
@@ -2217,31 +2226,31 @@
     </row>
     <row r="39" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Белгород</t>
   </si>
   <si>
     <t>Наименование груза</t>
@@ -187,22 +184,28 @@
     <t>когда выдан___________________________</t>
   </si>
   <si>
-    <t>Экспедиторская расписка №[number] от 24.04.2019 10:45:53</t>
-  </si>
-  <si>
-    <t>[items.name;block=tbs:row]</t>
-  </si>
-  <si>
-    <t>[items.quantity]</t>
-  </si>
-  <si>
-    <t>[items.weight]</t>
-  </si>
-  <si>
-    <t>[items.volume]</t>
-  </si>
-  <si>
-    <t>[items.price;ope=tbs:num]</t>
+    <t>Экспедиторская расписка №{order_id} от {order_date}</t>
+  </si>
+  <si>
+    <t>{dest_city}</t>
+  </si>
+  <si>
+    <t>{ship_city}</t>
+  </si>
+  <si>
+    <t>[item_name]</t>
+  </si>
+  <si>
+    <t>[item_quantity]</t>
+  </si>
+  <si>
+    <t>[item_weight]</t>
+  </si>
+  <si>
+    <t>[item_volume]</t>
+  </si>
+  <si>
+    <t>[item_price]</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1045,153 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1053,153 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,13 +1275,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>98822</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>632222</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1288,6 +1291,10 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4004072" y="6600825"/>
+          <a:ext cx="533400" cy="95250"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1712,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1730,142 +1737,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="A2" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1882,78 +1889,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53" t="s">
+      <c r="A13" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="G15" s="79"/>
+      <c r="H15" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="F16" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="73"/>
       <c r="H16" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1961,91 +1968,91 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="12" t="s">
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2054,109 +2061,109 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75" t="s">
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+    </row>
+    <row r="33" spans="1:8" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-    </row>
-    <row r="33" spans="1:8" s="26" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
@@ -2164,93 +2171,93 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="82" t="s">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="84"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="86" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="89">
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="90"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>48</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>49</v>
       </c>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>50</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>51</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2258,12 +2265,48 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A35:B35"/>
@@ -2272,48 +2315,12 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -275,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -922,11 +922,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1045,164 +1067,170 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,8 +1747,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1737,142 +1765,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1889,78 +1917,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="80"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="73"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,74 +1996,74 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2047,10 +2075,10 @@
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="71"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="20" t="s">
         <v>31</v>
       </c>
@@ -2061,63 +2089,63 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="6" t="s">
         <v>36</v>
       </c>
@@ -2126,44 +2154,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
@@ -2171,65 +2199,65 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="29"/>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="51" t="s">
+      <c r="B35" s="78"/>
+      <c r="C35" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="54" t="s">
+      <c r="D35" s="91"/>
+      <c r="E35" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55">
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="87">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="56"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="44" t="s">
+      <c r="D37" s="93"/>
+      <c r="E37" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="45">
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="83">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="46"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="84"/>
     </row>
     <row r="39" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
@@ -2264,63 +2292,59 @@
       <c r="H41" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
+  <mergeCells count="52">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>[item_price]</t>
+  </si>
+  <si>
+    <t>подпись</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -266,6 +269,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -804,60 +813,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -942,13 +897,151 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1040,32 +1133,149 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,158 +1289,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,211 +1349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Имя " descr="Descr "/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="18000" rIns="36000" bIns="18000" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>подпись</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>98822</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>632222</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Имя " descr="Descr "/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4004072" y="6600825"/>
-          <a:ext cx="533400" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="18000" rIns="36000" bIns="18000" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>подпись</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Имя " descr="Descr "/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="18000" rIns="36000" bIns="18000" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>подпись</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Имя " descr="Descr "/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="18000" rIns="36000" bIns="18000" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>подпись</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,10 +1642,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1765,142 +1662,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1917,78 +1814,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57" t="s">
+      <c r="G15" s="69"/>
+      <c r="H15" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,74 +1893,74 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2075,10 +1972,10 @@
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="66"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="20" t="s">
         <v>31</v>
       </c>
@@ -2089,63 +1986,63 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="6" t="s">
         <v>36</v>
       </c>
@@ -2154,112 +2051,121 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-    </row>
-    <row r="33" spans="1:8" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="K33" s="86"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="29"/>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="78" t="s">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="92" t="s">
+      <c r="B35" s="95"/>
+      <c r="C35" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="79" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="87">
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="88"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="94" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="80" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="83">
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="85">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="84"/>
-    </row>
-    <row r="39" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>47</v>
       </c>
@@ -2268,7 +2174,7 @@
       </c>
       <c r="H39" s="33"/>
     </row>
-    <row r="40" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>49</v>
       </c>
@@ -2277,7 +2183,7 @@
       </c>
       <c r="H40" s="33"/>
     </row>
-    <row r="41" spans="1:8" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
         <v>51</v>
       </c>
@@ -2292,7 +2198,49 @@
       <c r="H41" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2303,51 +2251,10 @@
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\bsd.loc\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ospanel\domains\bsd.local\public\templates1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Экспедирование</t>
   </si>
   <si>
-    <t>ООО "МП"</t>
-  </si>
-  <si>
     <t>Адрес: 194292, Санкт-Петербург г, 2-Й Верхний пер, дом № 10, литера А, помещение А-114</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Грузоотправитель</t>
   </si>
   <si>
-    <t>ООО ТД "РК БЕЛГОРОД"</t>
-  </si>
-  <si>
     <t>Адрес: 308023, Белгородская обл, Белгород г, Заводской 5-Й пер, дом № 32А, корпус -, -</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
   </si>
   <si>
     <t>Город назначения:</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург</t>
   </si>
   <si>
     <t>Наименование груза</t>
@@ -97,18 +88,12 @@
     <t>экспедирование до пункта назначения Белгород г</t>
   </si>
   <si>
-    <t>350-00</t>
-  </si>
-  <si>
     <t>упаковка не заказана</t>
   </si>
   <si>
     <t>страховая премия</t>
   </si>
   <si>
-    <t>50-00</t>
-  </si>
-  <si>
     <t>1 место</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>700-00</t>
-  </si>
-  <si>
     <t>Стоимость хранения с  по</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t>Место оплаты:</t>
   </si>
   <si>
-    <t>По счету СП00-012366 от 24.04.2019</t>
-  </si>
-  <si>
     <t>Плательщик: ООО "МП"</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>Груз получил:</t>
   </si>
   <si>
-    <t>Дата получения:_______________________</t>
-  </si>
-  <si>
     <t>по паспорту_________№________________</t>
   </si>
   <si>
@@ -184,31 +160,88 @@
     <t>когда выдан___________________________</t>
   </si>
   <si>
-    <t>Экспедиторская расписка №{order_id} от {order_date}</t>
-  </si>
-  <si>
-    <t>{dest_city}</t>
-  </si>
-  <si>
-    <t>{ship_city}</t>
-  </si>
-  <si>
-    <t>[item_name]</t>
-  </si>
-  <si>
-    <t>[item_quantity]</t>
-  </si>
-  <si>
-    <t>[item_weight]</t>
-  </si>
-  <si>
-    <t>[item_volume]</t>
-  </si>
-  <si>
-    <t>[item_price]</t>
-  </si>
-  <si>
     <t>подпись</t>
+  </si>
+  <si>
+    <t>{КоличествоМест}</t>
+  </si>
+  <si>
+    <t>{Вес}</t>
+  </si>
+  <si>
+    <t>{Объем}</t>
+  </si>
+  <si>
+    <t>{СтоимостьПеревозки}</t>
+  </si>
+  <si>
+    <t>{Груз}</t>
+  </si>
+  <si>
+    <t>{ГородОтправления}</t>
+  </si>
+  <si>
+    <t>{ГородНазначения}</t>
+  </si>
+  <si>
+    <t>{СтраховаяПремия}</t>
+  </si>
+  <si>
+    <t>{ОрганизацияОтправления}</t>
+  </si>
+  <si>
+    <t>{ОрганизацияНазначения}</t>
+  </si>
+  <si>
+    <t>{ЭкспедицияДоПунктаПолучения}</t>
+  </si>
+  <si>
+    <t>{ЭкспедицияИзПунктаОтправки}</t>
+  </si>
+  <si>
+    <t>{СуммаДокумента}</t>
+  </si>
+  <si>
+    <t>{МестоОплаты}</t>
+  </si>
+  <si>
+    <t>{ФормаОплаты}</t>
+  </si>
+  <si>
+    <t>Экспедиторская расписка №{УникальныйИдентификатор} от {order_date}</t>
+  </si>
+  <si>
+    <t>{Статус}</t>
+  </si>
+  <si>
+    <t>{Скидка}</t>
+  </si>
+  <si>
+    <t>{ГрузВыдал}</t>
+  </si>
+  <si>
+    <t>{ГрузПолучил}</t>
+  </si>
+  <si>
+    <t>{ГрузСдал}</t>
+  </si>
+  <si>
+    <t>{ГрузПринял}</t>
+  </si>
+  <si>
+    <r>
+      <t>Дата получения:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> {ДатаПолучения}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -218,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -275,6 +308,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1175,164 +1215,164 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,8 +1684,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1662,230 +1702,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78" t="s">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="A13" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="8" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="63"/>
+        <v>47</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="68"/>
       <c r="H16" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1893,91 +1933,97 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="61"/>
+      <c r="F24" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="75"/>
       <c r="H24" s="20" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,110 +2032,110 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="A27" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="A28" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
+      <c r="A29" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
+      <c r="A30" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
+      <c r="A31" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
+      <c r="A32" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="K33" s="86"/>
+      <c r="A33" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
@@ -2097,101 +2143,109 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="95"/>
+      <c r="A35" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="85"/>
       <c r="C35" s="42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
+      <c r="E35" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="84"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="87" t="s">
-        <v>61</v>
+      <c r="A36" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="93"/>
+      <c r="C36" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="47" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="95"/>
+      <c r="A37" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="85"/>
       <c r="C37" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="88" t="s">
-        <v>61</v>
+      <c r="D38" s="97"/>
+      <c r="E38" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="48" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H39" s="33"/>
     </row>
-    <row r="40" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2199,48 +2253,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2253,6 +2265,48 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ospanel\domains\bsd.local\public\templates1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ospanel\domains\bsd.local\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1227,6 +1227,141 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,141 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1702,142 +1702,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1854,78 +1854,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66" t="s">
+      <c r="G15" s="84"/>
+      <c r="H15" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,78 +1933,78 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2018,10 +2018,10 @@
         <v>62</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="20" t="s">
         <v>58</v>
       </c>
@@ -2032,63 +2032,63 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="6" t="s">
         <v>30</v>
       </c>
@@ -2097,44 +2097,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2143,78 +2143,78 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="96" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="93" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="95"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="96" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="87" t="s">
+      <c r="D38" s="61"/>
+      <c r="E38" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>45</v>
       </c>
@@ -2253,6 +2253,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2265,48 +2307,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -208,9 +208,6 @@
     <t>{ФормаОплаты}</t>
   </si>
   <si>
-    <t>Экспедиторская расписка №{УникальныйИдентификатор} от {order_date}</t>
-  </si>
-  <si>
     <t>{Статус}</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
       </rPr>
       <t xml:space="preserve"> {ДатаПолучения}</t>
     </r>
+  </si>
+  <si>
+    <t>Экспедиторская расписка №{УникальныйИдентификатор} от {test}</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1227,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,114 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1702,142 +1702,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="A2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1854,78 +1854,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="85"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,78 +1933,78 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2015,13 +2015,13 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="76"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="20" t="s">
         <v>58</v>
       </c>
@@ -2032,63 +2032,63 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="6" t="s">
         <v>30</v>
       </c>
@@ -2097,44 +2097,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67" t="s">
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2143,85 +2143,85 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="93"/>
+      <c r="C36" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
       <c r="H36" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="97"/>
+      <c r="E38" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
       <c r="H38" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>40</v>
@@ -2253,48 +2253,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2307,6 +2265,48 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -241,7 +241,7 @@
     </r>
   </si>
   <si>
-    <t>Экспедиторская расписка №{УникальныйИдентификатор} от {test}</t>
+    <t>Экспедиторская расписка №{УникальныйИдентификатор} от</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1227,141 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,141 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,142 +1702,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1854,78 +1854,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66" t="s">
+      <c r="G15" s="84"/>
+      <c r="H15" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,78 +1933,78 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2018,10 +2018,10 @@
         <v>61</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="20" t="s">
         <v>58</v>
       </c>
@@ -2032,63 +2032,63 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="6" t="s">
         <v>30</v>
       </c>
@@ -2097,44 +2097,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2143,78 +2143,78 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="96" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="93" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="95"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="96" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="87" t="s">
+      <c r="D38" s="61"/>
+      <c r="E38" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>45</v>
       </c>
@@ -2253,6 +2253,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2265,48 +2307,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -30,25 +30,7 @@
     <t>Экспедирование</t>
   </si>
   <si>
-    <t>Адрес: 194292, Санкт-Петербург г, 2-Й Верхний пер, дом № 10, литера А, помещение А-114</t>
-  </si>
-  <si>
-    <t>Тел.: 8(812)775-64-51 доб. 216 Евгения,212 Инесса</t>
-  </si>
-  <si>
-    <t>ИНН/КПП: 7802608526/780201001</t>
-  </si>
-  <si>
     <t>Грузоотправитель</t>
-  </si>
-  <si>
-    <t>Адрес: 308023, Белгородская обл, Белгород г, Заводской 5-Й пер, дом № 32А, корпус -, -</t>
-  </si>
-  <si>
-    <t>Тел.: +7 (910) 732-92-55, 8910-741-33-26 Анастасия</t>
-  </si>
-  <si>
-    <t>ИНН/КПП: 3123198116/312301001</t>
   </si>
   <si>
     <t>Грузополучатель</t>
@@ -75,10 +57,6 @@
 (м3)</t>
   </si>
   <si>
-    <t>Стоимость
-перевозки (руб.)</t>
-  </si>
-  <si>
     <t>скидка к тарифу (0%)</t>
   </si>
   <si>
@@ -94,33 +72,21 @@
     <t>страховая премия</t>
   </si>
   <si>
-    <t>1 место</t>
-  </si>
-  <si>
     <t>Статус:</t>
   </si>
   <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>Стоимость хранения с  по</t>
-  </si>
-  <si>
     <t>Упаковка: отказ от жесткой упаковки</t>
   </si>
   <si>
-    <t>Пломбы:</t>
-  </si>
-  <si>
     <t>Форма оплаты:</t>
   </si>
   <si>
     <t>Место оплаты:</t>
   </si>
   <si>
-    <t>Плательщик: ООО "МП"</t>
-  </si>
-  <si>
     <t>Отм. об оплате</t>
   </si>
   <si>
@@ -154,9 +120,6 @@
     <t>кем выдан ____________________________</t>
   </si>
   <si>
-    <t>Исполнитель: Романовская Регина Витальевна</t>
-  </si>
-  <si>
     <t>когда выдан___________________________</t>
   </si>
   <si>
@@ -185,12 +148,6 @@
   </si>
   <si>
     <t>{СтраховаяПремия}</t>
-  </si>
-  <si>
-    <t>{ОрганизацияОтправления}</t>
-  </si>
-  <si>
-    <t>{ОрганизацияНазначения}</t>
   </si>
   <si>
     <t>{ЭкспедицияДоПунктаПолучения}</t>
@@ -242,6 +199,46 @@
   </si>
   <si>
     <t>Экспедиторская расписка №{УникальныйИдентификатор} от</t>
+  </si>
+  <si>
+    <t>{КоличествоМест} мест(о)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тел.: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНН/КПП: </t>
+  </si>
+  <si>
+    <t>Стоимость
+перевозки ({ВалютаДокумента})</t>
+  </si>
+  <si>
+    <t>{СтоимостьХранения}</t>
+  </si>
+  <si>
+    <t>Исполнитель: {Ответственный}</t>
+  </si>
+  <si>
+    <t>Стоимость хранения с {ДатаНачалаХранения} по {ДатаОкончанияХранения}</t>
+  </si>
+  <si>
+    <t>{Грузоотправитель}</t>
+  </si>
+  <si>
+    <t>{Грузополучатель}</t>
+  </si>
+  <si>
+    <t>Пломбы: {КоличествоПломб}</t>
+  </si>
+  <si>
+    <t>{ОтказОтЖесткойУпаковки}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плательщик: </t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1224,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,114 +1370,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1684,8 +1681,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1702,230 +1699,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="A2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="A4" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="A13" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="85"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="78"/>
+        <v>35</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="68"/>
       <c r="H16" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,97 +1930,97 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+      <c r="E18" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="A19" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="A20" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="A21" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="A22" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="A23" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="76"/>
+      <c r="F24" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="75"/>
       <c r="H24" s="20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2032,109 +2029,113 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="A28" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="A29" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="A31" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="A32" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="A33" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2143,109 +2144,109 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="49"/>
+      <c r="A35" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="85"/>
       <c r="C35" s="42" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="E35" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="A36" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="93"/>
+      <c r="C36" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
       <c r="H36" s="47" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="49"/>
+      <c r="A37" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="85"/>
       <c r="C37" s="44" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="E37" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="A38" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="97"/>
+      <c r="E38" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
       <c r="H38" s="48" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2253,48 +2254,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2307,6 +2266,48 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ospanel\domains\bsd.local\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\bsd.loc\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -313,13 +313,19 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="62">
     <border>
@@ -1078,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1224,6 +1230,117 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,140 +1353,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,8 +1693,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:H29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1699,142 +1711,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1851,78 +1863,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66" t="s">
+      <c r="G15" s="83"/>
+      <c r="H15" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1930,78 +1942,78 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
       <c r="H18" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="99"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2015,10 +2027,10 @@
         <v>47</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="20" t="s">
         <v>44</v>
       </c>
@@ -2029,67 +2041,67 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="6" t="s">
         <v>20</v>
       </c>
@@ -2098,44 +2110,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2144,78 +2156,78 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="96" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="93" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="95"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="96" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="87" t="s">
+      <c r="D38" s="61"/>
+      <c r="E38" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>33</v>
       </c>
@@ -2254,6 +2266,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2266,48 +2320,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -63,9 +63,6 @@
     <t>экспедирование от пункта отправления</t>
   </si>
   <si>
-    <t>экспедирование до пункта назначения Белгород г</t>
-  </si>
-  <si>
     <t>упаковка не заказана</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Плательщик: </t>
+  </si>
+  <si>
+    <t>экспедирование до пункта назначения {ГородНазначения} г</t>
   </si>
 </sst>
 </file>
@@ -1230,6 +1230,117 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1269,118 +1380,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1693,8 +1693,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1711,142 +1711,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1863,78 +1863,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="84"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1942,72 +1942,72 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="99"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -2020,19 +2020,19 @@
     <row r="24" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="76"/>
       <c r="H24" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,113 +2041,113 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="A27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65" t="s">
+      <c r="A31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67" t="s">
+      <c r="A32" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+    </row>
+    <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-    </row>
-    <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2156,109 +2156,109 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="86"/>
+      <c r="C35" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="42" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="94"/>
+      <c r="C36" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="98"/>
+      <c r="E36" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="86"/>
+      <c r="C37" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="44" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="88"/>
+      <c r="C38" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2266,48 +2266,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2320,6 +2278,48 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -195,19 +195,10 @@
     </r>
   </si>
   <si>
-    <t>Экспедиторская расписка №{УникальныйИдентификатор} от</t>
-  </si>
-  <si>
     <t>{КоличествоМест} мест(о)</t>
   </si>
   <si>
-    <t xml:space="preserve">Адрес: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тел.: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНН/КПП: </t>
   </si>
   <si>
     <t>Стоимость
@@ -239,6 +230,21 @@
   </si>
   <si>
     <t>экспедирование до пункта назначения {ГородНазначения} г</t>
+  </si>
+  <si>
+    <t>{Представление}</t>
+  </si>
+  <si>
+    <t>Адрес: {ГрузоотправительАдрес}</t>
+  </si>
+  <si>
+    <t>Адрес: {ГрузополучательАдрес}</t>
+  </si>
+  <si>
+    <t>ИНН/КПП: {ГрузоотправительИНН}/{ГрузоотправительКПП}</t>
+  </si>
+  <si>
+    <t>ИНН/КПП: {ГрузополучательИНН}/{ГрузополучательКПП}</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1233,6 +1239,123 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,143 +1368,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,8 +1702,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1711,142 +1720,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="A5" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58" t="s">
+      <c r="A7" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="A8" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="A9" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="A10" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61" t="s">
+      <c r="A11" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1863,78 +1872,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="67"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1942,53 +1951,53 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="A20" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,7 +2016,7 @@
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -2041,67 +2050,67 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="6" t="s">
         <v>19</v>
       </c>
@@ -2110,44 +2119,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85" t="s">
+      <c r="A32" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2156,78 +2165,78 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="86"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="93" t="s">
+      <c r="E35" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="97" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="94" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="86"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="97" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="88" t="s">
+      <c r="D38" s="62"/>
+      <c r="E38" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="90"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="48" t="s">
         <v>32</v>
       </c>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -2266,6 +2275,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2278,48 +2329,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -198,9 +198,6 @@
     <t>{КоличествоМест} мест(о)</t>
   </si>
   <si>
-    <t xml:space="preserve">Тел.: </t>
-  </si>
-  <si>
     <t>Стоимость
 перевозки ({ВалютаДокумента})</t>
   </si>
@@ -245,6 +242,12 @@
   </si>
   <si>
     <t>ИНН/КПП: {ГрузополучательИНН}/{ГрузополучательКПП}</t>
+  </si>
+  <si>
+    <t>Тел.: {ГрузоотправительТелефон}</t>
+  </si>
+  <si>
+    <t>Тел.: {ГрузополучательТелефон}</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1239,6 +1242,114 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1278,119 +1389,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1720,142 +1720,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="95" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1872,78 +1872,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="85"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,53 +1951,53 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="A20" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2050,67 +2050,67 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="A27" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="A29" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="6" t="s">
         <v>19</v>
       </c>
@@ -2119,44 +2119,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="67" t="s">
+      <c r="A32" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2165,78 +2165,78 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="61" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="58" t="s">
+      <c r="D36" s="98"/>
+      <c r="E36" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="61" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="52" t="s">
+      <c r="D38" s="98"/>
+      <c r="E38" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="48" t="s">
         <v>32</v>
       </c>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -2275,48 +2275,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2329,6 +2287,48 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>ООО  "БСД"</t>
   </si>
@@ -57,9 +57,6 @@
 (м3)</t>
   </si>
   <si>
-    <t>скидка к тарифу (0%)</t>
-  </si>
-  <si>
     <t>экспедирование от пункта отправления</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>{Статус}</t>
-  </si>
-  <si>
-    <t>{Скидка}</t>
   </si>
   <si>
     <t>{ГрузВыдал}</t>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>Тел.: {ГрузополучательТелефон}</t>
+  </si>
+  <si>
+    <t>скидка к тарифу ({Скидка}%)</t>
+  </si>
+  <si>
+    <t>{СуммаСкидки}</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1239,137 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1254,143 +1383,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,8 +1702,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1720,142 +1720,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1872,78 +1872,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="66"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,58 +1951,60 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
@@ -2011,12 +2013,12 @@
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -2029,19 +2031,19 @@
     <row r="24" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="76"/>
       <c r="H24" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2050,113 +2052,113 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+      <c r="A27" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62" t="s">
+      <c r="A31" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85" t="s">
+      <c r="A32" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-    </row>
-    <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2165,109 +2167,109 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="42" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
+      <c r="A36" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="44" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="90"/>
+      <c r="A38" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>29</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>30</v>
       </c>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2275,6 +2277,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2287,48 +2331,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>

--- a/public/templates/ReceiptTemplate.xlsx
+++ b/public/templates/ReceiptTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\bsd.loc\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ospanel\domains\bsd.local\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -217,9 +217,6 @@
     <t>{ОтказОтЖесткойУпаковки}</t>
   </si>
   <si>
-    <t xml:space="preserve">Плательщик: </t>
-  </si>
-  <si>
     <t>экспедирование до пункта назначения {ГородНазначения} г</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>{СуммаСкидки}</t>
+  </si>
+  <si>
+    <t>Плательщик:  {Контрагент}</t>
   </si>
 </sst>
 </file>
@@ -322,18 +322,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="62">
@@ -1239,6 +1233,117 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1278,119 +1383,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,8 +1696,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1720,142 +1714,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1872,78 +1866,78 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,32 +1945,32 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="15" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -1989,42 +1983,42 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="16"/>
       <c r="H23" s="12"/>
     </row>
@@ -2038,10 +2032,10 @@
         <v>45</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="76"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="20" t="s">
         <v>42</v>
       </c>
@@ -2052,67 +2046,67 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
@@ -2121,44 +2115,44 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67" t="s">
+      <c r="A32" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2167,78 +2161,78 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="57" t="s">
+      <c r="D36" s="98"/>
+      <c r="E36" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="51" t="s">
+      <c r="D38" s="98"/>
+      <c r="E38" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="48" t="s">
         <v>31</v>
       </c>
@@ -2277,48 +2271,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A38:B38"/>
@@ -2331,6 +2283,48 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="0" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
